--- a/time.xlsx
+++ b/time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Задачи</t>
   </si>
@@ -72,16 +72,25 @@
     <t xml:space="preserve">Вёрстка блока таймера обратного отсчёта и его настройка </t>
   </si>
   <si>
-    <t>11ч 30мин</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 660 * 11.5 + 5000 = 7590 + 5000 = 13590руб</t>
-  </si>
-  <si>
     <t>Размещение секции "Материалы по теме" для блока "Лучшие практики" и перенос контента из таблицы</t>
   </si>
   <si>
     <t>Адаптация страницы, вёрстка моб. меню, учитывая доработки и новые блокои</t>
+  </si>
+  <si>
+    <t>Вёрстка блока, которое открывает видео</t>
+  </si>
+  <si>
+    <t>Настройка переключения навигации при скролле и смена хэш URL</t>
+  </si>
+  <si>
+    <t>50 мин</t>
+  </si>
+  <si>
+    <t>13ч</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 660 * 13 + 5000 = 8580 + 5000 = 13580руб</t>
   </si>
 </sst>
 </file>
@@ -452,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -568,7 +577,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
@@ -594,22 +603,43 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
+      <c r="D16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D2:D15"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -621,6 +651,7 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/time.xlsx
+++ b/time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Задачи</t>
   </si>
@@ -84,13 +84,16 @@
     <t>Настройка переключения навигации при скролле и смена хэш URL</t>
   </si>
   <si>
-    <t>50 мин</t>
-  </si>
-  <si>
     <t>13ч</t>
   </si>
   <si>
     <t xml:space="preserve"> 660 * 13 + 5000 = 8580 + 5000 = 13580руб</t>
+  </si>
+  <si>
+    <t>30мин</t>
+  </si>
+  <si>
+    <t>1 час</t>
   </si>
 </sst>
 </file>
@@ -156,13 +159,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,7 +467,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -488,163 +491,163 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="D2:D15"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B10"/>

--- a/time.xlsx
+++ b/time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Задачи</t>
   </si>
@@ -75,25 +75,28 @@
     <t>Размещение секции "Материалы по теме" для блока "Лучшие практики" и перенос контента из таблицы</t>
   </si>
   <si>
-    <t>Адаптация страницы, вёрстка моб. меню, учитывая доработки и новые блокои</t>
-  </si>
-  <si>
     <t>Вёрстка блока, которое открывает видео</t>
   </si>
   <si>
     <t>Настройка переключения навигации при скролле и смена хэш URL</t>
   </si>
   <si>
-    <t>13ч</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 660 * 13 + 5000 = 8580 + 5000 = 13580руб</t>
-  </si>
-  <si>
     <t>30мин</t>
   </si>
   <si>
     <t>1 час</t>
+  </si>
+  <si>
+    <t>Адаптация страницы, вёрстка моб. меню, учитывая доработки и новые блоки</t>
+  </si>
+  <si>
+    <t>Соединение таймера и превью в фиксированной нижней правой панели, написание логики по истечению таймера</t>
+  </si>
+  <si>
+    <t>14ч</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 660 * 14 + 5000 = 9240 + 5000 = 14240руб</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,16 +162,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,10 +488,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -498,8 +507,8 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -510,7 +519,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
@@ -520,7 +529,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
@@ -530,7 +539,7 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
@@ -540,114 +549,127 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
+      <c r="D18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="19">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D2:D17"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D2:D15"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B10"/>
@@ -655,6 +677,11 @@
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
